--- a/doc/2024-2025-it.xlsx
+++ b/doc/2024-2025-it.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Не ходят" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$O$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$P$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">15-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-03</t>
   </si>
   <si>
     <t xml:space="preserve">Проект. Технологии</t>
@@ -301,7 +304,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,13 +329,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -418,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,10 +457,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -699,14 +691,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1048576"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -721,9 +711,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="2" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,7 +751,7 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -772,7 +763,9 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -786,22 +779,23 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>1</v>
@@ -821,22 +815,25 @@
       <c r="K2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>8</v>
@@ -848,20 +845,21 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>3</v>
@@ -873,26 +871,27 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>22</v>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -902,22 +901,23 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>8</v>
@@ -929,20 +929,21 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>9</v>
@@ -958,22 +959,23 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -987,20 +989,21 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -1016,20 +1019,21 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>7</v>
@@ -1043,20 +1047,21 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>9</v>
@@ -1072,22 +1077,23 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1103,28 +1109,31 @@
       <c r="K12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="9" t="n">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1140,32 +1149,33 @@
       <c r="K13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>1</v>
@@ -1179,28 +1189,31 @@
       <c r="K14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" s="9"/>
-      <c r="N14" s="9" t="n">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1212,22 +1225,23 @@
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="9" t="n">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>3</v>
@@ -1241,28 +1255,29 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9" t="n">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1276,22 +1291,25 @@
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" s="9"/>
-      <c r="N17" s="9" t="n">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>1</v>
@@ -1305,28 +1323,29 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9" t="n">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1336,24 +1355,29 @@
       <c r="I19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" s="9"/>
-      <c r="N19" s="9" t="n">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>4</v>
@@ -1365,30 +1389,31 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="n">
@@ -1398,22 +1423,23 @@
       <c r="K21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9" t="n">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>5</v>
@@ -1425,26 +1451,27 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1460,19 +1487,22 @@
       <c r="K23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="9" t="n">
+      <c r="N23" s="9"/>
+      <c r="O23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,27 +1558,28 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="D37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="13" t="n">
+      <c r="C38" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1557,13 +1588,14 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="13" t="n">
+      <c r="C39" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1572,13 +1604,14 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="13" t="n">
+      <c r="C40" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1587,13 +1620,14 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1602,13 +1636,14 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="13" t="n">
+      <c r="C42" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1617,13 +1652,14 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="13" t="n">
+      <c r="C43" s="12" t="n">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1632,13 +1668,14 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="12" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1647,13 +1684,14 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="12" t="n">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1662,13 +1700,14 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="12" t="n">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1677,13 +1716,14 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1692,13 +1732,14 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="13" t="n">
+      <c r="C48" s="12" t="n">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1707,13 +1748,14 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="13" t="n">
+      <c r="C49" s="12" t="n">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1722,13 +1764,14 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="13" t="n">
+      <c r="C50" s="12" t="n">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1737,13 +1780,14 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="13" t="n">
+      <c r="C51" s="12" t="n">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1752,13 +1796,14 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1767,13 +1812,14 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="13" t="n">
+      <c r="C54" s="12" t="n">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1835,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,15 +1851,15 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="13" t="n">
+      <c r="C59" s="12" t="n">
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,7 +1877,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:O23"/>
+  <autoFilter ref="A1:P23"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://github.com/mshnschnko/it-2024-2"/>
     <hyperlink ref="E5" r:id="rId2" display="https://github.com/artemiigoldberg/it-2024-2"/>
@@ -1873,59 +1919,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>21</v>
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>16</v>
+      <c r="A2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>21</v>
+      <c r="A3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
+      <c r="A4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>16</v>
+      <c r="A5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>16</v>
+      <c r="A6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
+      <c r="A7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2024-2025-it.xlsx
+++ b/doc/2024-2025-it.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/krzhld/it-2024-2/tree/develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React (Vue), FastAPI, Postgresql</t>
   </si>
   <si>
     <t xml:space="preserve">Зинякова Екатерина</t>
@@ -718,10 +721,12 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -811,7 +816,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
@@ -856,7 +861,9 @@
       <c r="P2" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
@@ -949,7 +956,9 @@
       <c r="P5" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
@@ -1009,7 +1018,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
@@ -1039,19 +1048,23 @@
       <c r="M8" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>18</v>
@@ -1079,12 +1092,12 @@
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
@@ -1103,7 +1116,9 @@
       <c r="M10" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11" t="n">
         <v>21</v>
@@ -1115,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
@@ -1144,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
@@ -1153,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1180,14 +1195,16 @@
       <c r="P12" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>25</v>
@@ -1196,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1221,14 +1238,16 @@
       <c r="P13" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>25</v>
@@ -1237,11 +1256,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>1</v>
@@ -1260,20 +1279,22 @@
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>18</v>
@@ -1282,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1310,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>18</v>
@@ -1343,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>18</v>
@@ -1352,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1371,20 +1392,22 @@
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>18</v>
@@ -1417,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -1426,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1445,20 +1468,22 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>18</v>
@@ -1476,7 +1501,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -1487,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>18</v>
@@ -1496,11 +1521,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="n">
@@ -1513,20 +1538,22 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>18</v>
@@ -1544,7 +1571,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -1555,7 +1582,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>18</v>
@@ -1564,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1585,20 +1612,22 @@
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,12 +1683,12 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1676,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1693,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1710,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1727,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1744,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1761,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1778,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1795,7 +1824,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1812,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1829,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1846,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1863,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1880,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1897,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1914,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1931,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,7 +1976,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +2000,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2049,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2032,7 +2061,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>25</v>
@@ -2040,7 +2069,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>18</v>
@@ -2048,7 +2077,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>25</v>
@@ -2056,7 +2085,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>18</v>
@@ -2064,7 +2093,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>18</v>
@@ -2072,7 +2101,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>18</v>
@@ -2080,7 +2109,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>25</v>

--- a/doc/2024-2025-it.xlsx
+++ b/doc/2024-2025-it.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Не ходят" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$Q$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$S$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -65,6 +65,12 @@
     <t xml:space="preserve">29-03</t>
   </si>
   <si>
+    <t xml:space="preserve">12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проект. Технологии</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t xml:space="preserve">Java Spring, ORM, Postgresql, React, Docker</t>
   </si>
   <si>
+    <t xml:space="preserve">Rollup</t>
+  </si>
+  <si>
     <t xml:space="preserve">Быстров Александр</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t xml:space="preserve">React, Node + express, Postgresql</t>
   </si>
   <si>
+    <t xml:space="preserve">Docker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гордейко Никита</t>
   </si>
   <si>
@@ -125,12 +137,21 @@
     <t xml:space="preserve">React (Vue), FastAPI, Postgresql</t>
   </si>
   <si>
+    <t xml:space="preserve">MVC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Зинякова Екатерина</t>
   </si>
   <si>
+    <t xml:space="preserve">Git</t>
+  </si>
+  <si>
     <t xml:space="preserve">Иванова Анна</t>
   </si>
   <si>
+    <t xml:space="preserve">Babel JS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Карслидис Давид</t>
   </si>
   <si>
@@ -158,6 +179,9 @@
     <t xml:space="preserve">React, FastAPI, Postgresql</t>
   </si>
   <si>
+    <t xml:space="preserve">Wep-pack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Лайла Раби</t>
   </si>
   <si>
@@ -207,6 +231,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/Timofey-Chibyshev/it-2024-2/tree/main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пересборка _ конфиг</t>
   </si>
   <si>
     <t xml:space="preserve">Сервис для подбора коворкингов</t>
@@ -365,7 +395,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,14 +416,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEE7E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7E5"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDEE7E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -438,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,11 +533,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,11 +561,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,7 +578,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -535,7 +605,39 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFEEEEEE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEE7E5"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFBF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAFD095"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFD7"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -544,7 +646,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -557,11 +659,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -577,7 +679,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -719,17 +821,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.66"/>
@@ -737,19 +839,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="19.93"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -789,10 +888,10 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -801,8 +900,12 @@
       <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -815,897 +918,1009 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="Q2" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S2" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>8</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="n">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S5" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>8</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="n">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11" t="n">
+      <c r="E7" s="8"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11" t="n">
+      <c r="D9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11" t="n">
+      <c r="E10" s="8"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11" t="n">
+      <c r="N10" s="8"/>
+      <c r="O10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11" t="n">
+      <c r="E11" s="8"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="Q12" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S12" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11" t="n">
+      <c r="M14" s="10"/>
+      <c r="N14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="S14" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11" t="n">
+      <c r="N15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11" t="n">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Q17" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S17" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11" t="n">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="Q19" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S19" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11" t="n">
+        <v>63</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="Q21" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S21" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11" t="n">
+        <v>68</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="Q23" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S23" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="n">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="n">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="13" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D37" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C38" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1716,13 +1931,15 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="13" t="n">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C39" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1733,13 +1950,15 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="13" t="n">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C40" s="17" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1750,13 +1969,15 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1767,13 +1988,15 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="13" t="n">
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C42" s="17" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1784,13 +2007,15 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="13" t="n">
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C43" s="17" t="n">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1801,13 +2026,15 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="13" t="n">
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C44" s="17" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1818,13 +2045,15 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="13" t="n">
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C45" s="17" t="n">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1835,13 +2064,15 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="13" t="n">
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C46" s="17" t="n">
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1852,13 +2083,15 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="13" t="n">
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C47" s="17" t="n">
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1869,13 +2102,15 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="13" t="n">
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C48" s="17" t="n">
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1886,13 +2121,15 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="13" t="n">
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="17" t="n">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1903,13 +2140,15 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="13" t="n">
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="17" t="n">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1920,13 +2159,15 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="13" t="n">
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="17" t="n">
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1937,13 +2178,15 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1954,71 +2197,64 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="13" t="n">
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C54" s="17" t="n">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C55" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C56" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C57" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="13" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C59" s="17" t="n">
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:Q23"/>
+  <autoFilter ref="A1:S23"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://github.com/mshnschnko/it-2024-2"/>
     <hyperlink ref="E5" r:id="rId2" display="https://github.com/artemiigoldberg/it-2024-2"/>
@@ -2049,7 +2285,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2060,59 +2296,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>25</v>
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
+      <c r="A2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>25</v>
+      <c r="A3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
+      <c r="A4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
+      <c r="A5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
+      <c r="A6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
+      <c r="A7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2024-2025-it.xlsx
+++ b/doc/2024-2025-it.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Не ходят" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$S$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$T$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">19-04</t>
   </si>
   <si>
+    <t xml:space="preserve">26-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проект. Технологии</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t xml:space="preserve">https://github.com/KNS121/it-2024-2/</t>
   </si>
   <si>
+    <t xml:space="preserve">Kubernetes – внутреннее устройство</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кочетков Игорь</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t xml:space="preserve">https://github.com/EBAA-sketch/it-2024-2</t>
   </si>
   <si>
+    <t xml:space="preserve">MVVM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Лобкова Вероника</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t xml:space="preserve">1 (ошибка – alert) + icon</t>
   </si>
   <si>
+    <t xml:space="preserve">NPM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чайковский Николай</t>
   </si>
   <si>
@@ -303,9 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve">Сборщики – rollup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kubernetes – внутреннее устройство</t>
   </si>
   <si>
     <t xml:space="preserve">Kubernetes – практический пример</t>
@@ -395,7 +404,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,12 +439,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -492,7 +495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,23 +552,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,7 +585,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -634,14 +641,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFD7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -663,7 +662,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -821,14 +820,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG60"/>
+  <dimension ref="A1:AH60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="R21" activeCellId="0" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,11 +840,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="9.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -894,7 +893,7 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
@@ -906,7 +905,9 @@
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -920,22 +921,23 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>1</v>
@@ -963,16 +965,17 @@
         <v>1</v>
       </c>
       <c r="O2" s="8"/>
-      <c r="P2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="S2" s="8" t="n">
+      <c r="T2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -981,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>8</v>
@@ -1006,16 +1009,17 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>3</v>
@@ -1031,28 +1035,29 @@
       <c r="M4" s="10"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1068,16 +1073,19 @@
       <c r="O5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="S5" s="8" t="n">
+      <c r="T5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1086,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>8</v>
@@ -1111,29 +1119,30 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>9</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15" t="n">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="8"/>
@@ -1142,35 +1151,36 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="11" t="n">
@@ -1179,16 +1189,17 @@
       <c r="O8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="13" t="s">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="8" t="n">
-        <v>1</v>
+      <c r="R8" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="S8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1197,127 +1208,132 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="8" t="n">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>7</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="n">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="8" t="n">
+      <c r="P10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="n">
         <v>9</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15" t="n">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1343,14 +1359,19 @@
       <c r="O12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8" t="n">
+      <c r="P12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="S12" s="8" t="n">
+      <c r="T12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1359,16 +1380,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1392,16 +1413,17 @@
       <c r="O13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="S13" s="8" t="n">
+      <c r="T13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1410,20 +1432,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>1</v>
@@ -1447,16 +1469,17 @@
       <c r="O14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="8" t="n">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="S14" s="8" t="n">
+      <c r="T14" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1465,16 +1488,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1496,22 +1519,27 @@
       <c r="O15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>3</v>
@@ -1529,30 +1557,31 @@
       <c r="M16" s="10"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8" t="n">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1576,14 +1605,15 @@
       <c r="O17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8" t="n">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="S17" s="8" t="n">
+      <c r="T17" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1592,10 +1622,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>1</v>
@@ -1613,30 +1643,31 @@
       <c r="M18" s="10"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8" t="n">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1656,14 +1687,15 @@
       <c r="M19" s="10"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8" t="n">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="S19" s="8" t="n">
+      <c r="T19" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,10 +1704,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>4</v>
@@ -1691,32 +1723,33 @@
       <c r="M20" s="10"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="n">
@@ -1732,14 +1765,19 @@
         <v>1</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8" t="n">
+      <c r="P21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="S21" s="8" t="n">
+      <c r="T21" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,10 +1786,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>5</v>
@@ -1767,28 +1805,29 @@
       <c r="M22" s="10"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1814,25 +1853,26 @@
       <c r="O23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8" t="n">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="S23" s="8" t="n">
+      <c r="T23" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1840,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1848,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1856,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1864,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1872,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1880,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1888,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1896,31 +1936,32 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D37" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="D37" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="17" t="n">
+      <c r="C38" s="18" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1933,13 +1974,14 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="17" t="n">
+      <c r="C39" s="18" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1952,13 +1994,14 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="17" t="n">
+      <c r="C40" s="18" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1971,13 +2014,14 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1990,13 +2034,14 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="17" t="n">
+      <c r="C42" s="18" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2009,13 +2054,14 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="17" t="n">
+      <c r="C43" s="18" t="n">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2028,13 +2074,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="17" t="n">
+      <c r="C44" s="18" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2047,13 +2094,14 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="17" t="n">
+      <c r="C45" s="18" t="n">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2066,13 +2114,14 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="17" t="n">
+      <c r="C46" s="18" t="n">
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2085,13 +2134,14 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="17" t="n">
+      <c r="C47" s="18" t="n">
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2104,13 +2154,14 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="17" t="n">
+      <c r="C48" s="18" t="n">
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2123,13 +2174,14 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="17" t="n">
+      <c r="C49" s="18" t="n">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2142,13 +2194,14 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="17" t="n">
+      <c r="C50" s="18" t="n">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2161,13 +2214,14 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="17" t="n">
+      <c r="C51" s="18" t="n">
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2180,13 +2234,14 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2199,13 +2254,14 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="17" t="n">
+      <c r="C54" s="18" t="n">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2213,7 +2269,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2221,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2229,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2237,15 +2293,15 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="17" t="n">
+      <c r="C59" s="18" t="n">
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2254,7 +2310,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S23"/>
+  <autoFilter ref="A1:T23"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://github.com/mshnschnko/it-2024-2"/>
     <hyperlink ref="E5" r:id="rId2" display="https://github.com/artemiigoldberg/it-2024-2"/>
@@ -2296,59 +2352,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>28</v>
+      <c r="A1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>20</v>
+      <c r="A2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>28</v>
+      <c r="A3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>20</v>
+      <c r="A4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>20</v>
+      <c r="A5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>20</v>
+      <c r="A6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>28</v>
+      <c r="A7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2024-2025-it.xlsx
+++ b/doc/2024-2025-it.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Не ходят" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$T$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$U$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">26-04</t>
   </si>
   <si>
+    <t xml:space="preserve">03-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проект. Технологии</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t xml:space="preserve">https://github.com/mshnschnko/it-2024-2</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Java Spring, ORM, Postgresql, React, Docker</t>
   </si>
   <si>
@@ -209,9 +215,15 @@
     <t xml:space="preserve">React (Vue), Django, Postgresql</t>
   </si>
   <si>
+    <t xml:space="preserve">JWT+access\refresh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ольшанский Михаил</t>
   </si>
   <si>
+    <t xml:space="preserve">GIT+git-flow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Плотников Олег</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/Timofey-Chibyshev/it-2024-2/tree/main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP+клиент/сервер + MVC сравнение</t>
   </si>
   <si>
     <t xml:space="preserve">iife</t>
@@ -404,7 +419,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FFAFD095"/>
       </patternFill>
@@ -450,7 +471,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
-        <bgColor rgb="FFDEE7E5"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -495,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,6 +565,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,23 +581,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,7 +610,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -641,6 +666,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD8CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -667,7 +700,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -683,7 +716,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF7D1D5"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
@@ -820,14 +853,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH60"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R21" activeCellId="0" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="S24" activeCellId="0" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,10 +874,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="9.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -896,7 +930,7 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="6" t="s">
@@ -908,7 +942,9 @@
       <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3"/>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -922,22 +958,23 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>1</v>
@@ -967,15 +1004,18 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="U2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -984,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>8</v>
@@ -1006,20 +1046,21 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>3</v>
@@ -1036,28 +1077,29 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="8"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1076,16 +1118,17 @@
       <c r="P5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q5" s="12"/>
       <c r="R5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="T5" s="8" t="n">
+      <c r="U5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>8</v>
@@ -1116,71 +1159,73 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>9</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="n">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="11" t="n">
@@ -1190,16 +1235,17 @@
         <v>1</v>
       </c>
       <c r="P8" s="8"/>
-      <c r="Q8" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q8" s="12"/>
       <c r="R8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="8" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="T8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1208,65 +1254,68 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="15"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>7</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14" t="n">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="8"/>
@@ -1276,64 +1325,66 @@
       <c r="P10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q10" s="12"/>
       <c r="R10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="8" t="n">
         <v>9</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14" t="n">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1363,15 +1414,18 @@
         <v>1</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="T12" s="8" t="n">
+      <c r="U12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1380,16 +1434,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1414,16 +1468,17 @@
         <v>1</v>
       </c>
       <c r="P13" s="8"/>
-      <c r="Q13" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q13" s="12"/>
       <c r="R13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T13" s="8" t="n">
+      <c r="U13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,20 +1487,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>1</v>
@@ -1471,15 +1526,18 @@
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="12" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="U14" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1488,16 +1546,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1522,24 +1580,25 @@
       <c r="P15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="8" t="n">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>3</v>
@@ -1558,30 +1617,31 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8" t="n">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1606,14 +1666,19 @@
         <v>1</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8" t="n">
+      <c r="Q17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T17" s="8" t="n">
+      <c r="U17" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1622,10 +1687,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>1</v>
@@ -1644,30 +1709,35 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8" t="n">
+      <c r="Q18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1688,14 +1758,15 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8" t="n">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="T19" s="8" t="n">
+      <c r="U19" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,10 +1775,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>4</v>
@@ -1724,32 +1795,33 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="8"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="n">
@@ -1768,16 +1840,17 @@
       <c r="P21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q21" s="12"/>
       <c r="R21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="T21" s="8" t="n">
+      <c r="U21" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,10 +1859,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>5</v>
@@ -1806,28 +1879,29 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="8"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1854,25 +1928,30 @@
         <v>1</v>
       </c>
       <c r="P23" s="8"/>
-      <c r="Q23" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8" t="n">
+      <c r="Q23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="T23" s="8" t="n">
+      <c r="U23" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1880,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1888,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1896,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1904,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1912,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1920,7 +1999,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1928,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1936,32 +2015,33 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
+      <c r="D37" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="18" t="n">
+      <c r="C38" s="19" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1975,13 +2055,14 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="19" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1995,13 +2076,14 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="19" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2015,13 +2097,14 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2035,13 +2118,14 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="18" t="n">
+      <c r="C42" s="19" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2055,13 +2139,14 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="18" t="n">
+      <c r="C43" s="19" t="n">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2075,13 +2160,14 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="18" t="n">
+      <c r="C44" s="19" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2095,13 +2181,14 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="18" t="n">
+      <c r="C45" s="19" t="n">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2115,13 +2202,14 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="18" t="n">
+      <c r="C46" s="19" t="n">
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2135,13 +2223,14 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="18" t="n">
+      <c r="C47" s="19" t="n">
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2155,13 +2244,14 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="18" t="n">
+      <c r="C48" s="19" t="n">
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2175,13 +2265,14 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="18" t="n">
+      <c r="C49" s="19" t="n">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2195,13 +2286,14 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="18" t="n">
+      <c r="C50" s="19" t="n">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2215,13 +2307,14 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="18" t="n">
+      <c r="C51" s="19" t="n">
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2235,13 +2328,14 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2255,13 +2349,14 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="18" t="n">
+      <c r="C54" s="19" t="n">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2269,7 +2364,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2277,7 +2372,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2285,7 +2380,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2293,15 +2388,15 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="18" t="n">
+      <c r="C59" s="19" t="n">
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2310,7 +2405,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T23"/>
+  <autoFilter ref="A1:U23"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://github.com/mshnschnko/it-2024-2"/>
     <hyperlink ref="E5" r:id="rId2" display="https://github.com/artemiigoldberg/it-2024-2"/>
@@ -2341,7 +2436,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2352,59 +2447,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>29</v>
+      <c r="A1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>21</v>
+      <c r="A2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>29</v>
+      <c r="A3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
+      <c r="A4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
+      <c r="A5" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>21</v>
+      <c r="A6" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="A7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
